--- a/Medicine_List.xlsx
+++ b/Medicine_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\SC2002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaibi\eclipse-workspace\oop-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F35A148-5176-41BC-9E52-724593C93209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE2E4B-0080-47C6-B105-5CA84C20202D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1308" yWindow="816" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="600" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Medicine Name</t>
   </si>
@@ -38,19 +38,12 @@
   </si>
   <si>
     <t>Stock</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>hi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,20 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375"/>
-    <col min="2" max="2" customWidth="true" width="18.88671875"/>
-    <col min="3" max="3" customWidth="true" width="26.33203125"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,59 +429,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>2019.0</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>75</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0">
-        <v>123</v>
-      </c>
-      <c r="C5" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>123.0</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>100.0</v>
       </c>
     </row>
   </sheetData>
